--- a/RR Lab 2/Speedup Tables.xlsx
+++ b/RR Lab 2/Speedup Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reah\Desktop\PC\RR Lab 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23FADAE8-AD0C-420A-BF75-E929A6367D1A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619747AD-30BE-437D-A78A-0951232C6225}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="8796" xr2:uid="{1371BD5B-9DFD-41D1-B861-2EEF838A16AE}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>N=10000</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Speedup</t>
@@ -38,15 +35,47 @@
   <si>
     <t>N=100000</t>
   </si>
+  <si>
+    <t>Time (s)</t>
+  </si>
+  <si>
+    <t>Efficiency (N=100000)</t>
+  </si>
+  <si>
+    <t>Efficiency (N=10000)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -60,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,12 +97,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -89,6 +143,878 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30321829418399693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4387608522735631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4572252337289409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1314728494820248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2644298925086606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.1200475934802494</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1600176838773848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2678-4C1A-B12D-A43967693401}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="476371407"/>
+        <c:axId val="307286751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="476371407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307286751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="307286751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476371407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD052E50-46EE-42D9-825B-4A092665FC7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,190 +1314,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F0D1D4-25C8-45BD-938B-000D6A29DFDF}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I10" sqref="A8:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="12.47265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="3">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3">
         <v>10</v>
       </c>
-      <c r="E1">
+      <c r="F1" s="3">
         <v>20</v>
       </c>
-      <c r="F1">
+      <c r="G1" s="3">
         <v>40</v>
       </c>
-      <c r="G1">
+      <c r="H1" s="3">
         <v>80</v>
       </c>
-      <c r="H1">
+      <c r="I1" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <f>B3/C3</f>
+        <v>1.3032182941839969</v>
+      </c>
+      <c r="D2" s="2">
+        <f>B3/D3</f>
+        <v>2.74197914645756</v>
+      </c>
+      <c r="E2" s="2">
+        <f>B3/E3</f>
+        <v>5.1992043801865009</v>
+      </c>
+      <c r="F2" s="2">
+        <f>B3/F3</f>
+        <v>9.3306772296685256</v>
+      </c>
+      <c r="G2" s="2">
+        <f>B3/G3</f>
+        <v>17.595107122177186</v>
+      </c>
+      <c r="H2" s="2">
+        <f>B3/H3</f>
+        <v>12.475059528696937</v>
+      </c>
+      <c r="I2" s="2">
+        <f>B3/I3</f>
+        <v>12.315041844819552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.60773500000000003</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.46633400000000003</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.221641</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.11688999999999999</v>
+      </c>
+      <c r="F3" s="6">
+        <v>6.5132999999999996E-2</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3.4540000000000001E-2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>4.8716000000000002E-2</v>
+      </c>
+      <c r="I3" s="6">
+        <v>4.9348999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>5.6293999999999997E-2</v>
-      </c>
-      <c r="C2">
-        <f>B2/0.055864</f>
-        <v>1.0076972647859086</v>
-      </c>
-      <c r="D2">
-        <f>B2/0.052973</f>
-        <v>1.0626923149529004</v>
-      </c>
-      <c r="E2">
-        <f>B2/0.05496</f>
-        <v>1.0242721979621543</v>
-      </c>
-      <c r="F2">
-        <f>B2/0.075323</f>
-        <v>0.74736800180555729</v>
-      </c>
-      <c r="G2">
-        <f>B2/0.082575</f>
-        <v>0.68173175900696337</v>
-      </c>
-      <c r="H2">
-        <f>B2/0.078717</f>
-        <v>0.71514412388683513</v>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3">
+        <v>80</v>
+      </c>
+      <c r="I5" s="3">
+        <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <f>B2</f>
-        <v>5.6293999999999997E-2</v>
-      </c>
-      <c r="C3">
-        <f>B2/C2</f>
-        <v>5.5863999999999997E-2</v>
-      </c>
-      <c r="D3">
-        <f>B2/D2</f>
-        <v>5.2973000000000006E-2</v>
-      </c>
-      <c r="E3">
-        <f>B2/E2</f>
-        <v>5.4959999999999995E-2</v>
-      </c>
-      <c r="F3">
-        <f>B2/F2</f>
-        <v>7.5323000000000001E-2</v>
-      </c>
-      <c r="G3">
-        <f>B2/G2</f>
-        <v>8.2574999999999996E-2</v>
-      </c>
-      <c r="H3">
-        <f>B2/H2</f>
-        <v>7.8716999999999995E-2</v>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <f>B7/C7</f>
+        <v>1.3342442101120617</v>
+      </c>
+      <c r="D6" s="4">
+        <f>B7/D7</f>
+        <v>2.7425077656574044</v>
+      </c>
+      <c r="E6" s="4">
+        <f>B7/E7</f>
+        <v>5.2556643607075468</v>
+      </c>
+      <c r="F6" s="4">
+        <f>B7/F7</f>
+        <v>9.9292073006787067</v>
+      </c>
+      <c r="G6" s="4">
+        <f>B7/G7</f>
+        <v>18.764179687430438</v>
+      </c>
+      <c r="H6" s="4">
+        <f>B7/H7</f>
+        <v>28.208599736400394</v>
+      </c>
+      <c r="I6" s="4">
+        <f>B7/I7</f>
+        <v>31.233605439757184</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B7" s="6">
+        <v>63.223314000000002</v>
+      </c>
+      <c r="C7" s="6">
+        <v>47.385114000000002</v>
+      </c>
+      <c r="D7" s="6">
+        <v>23.053103</v>
+      </c>
+      <c r="E7" s="6">
+        <v>12.029557</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6.3674080000000002</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3.3693620000000002</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2.2412779999999999</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2.0242079999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="F8" s="1">
         <v>20</v>
       </c>
-      <c r="F5">
+      <c r="G8" s="1">
         <v>40</v>
       </c>
-      <c r="G5">
+      <c r="H8" s="1">
         <v>80</v>
       </c>
-      <c r="H5">
+      <c r="I8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <f>B7/C7</f>
-        <v>1.0003249356901951</v>
-      </c>
-      <c r="D6">
-        <f>B7/D7</f>
-        <v>0.9955164221767987</v>
-      </c>
-      <c r="E6">
-        <f>B7/E7</f>
-        <v>1.000107797003317</v>
-      </c>
-      <c r="F6">
-        <f>B7/F7</f>
-        <v>0.99131344210997918</v>
-      </c>
-      <c r="G6">
-        <f>B7/G7</f>
-        <v>0.99943099602212815</v>
-      </c>
-      <c r="H6">
-        <f>B7/H7</f>
-        <v>0.99636404223923303</v>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>C2-B2</f>
+        <v>0.30321829418399693</v>
+      </c>
+      <c r="D9">
+        <f>D2-C2</f>
+        <v>1.4387608522735631</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:I9" si="0">E2-D2</f>
+        <v>2.4572252337289409</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4.1314728494820248</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>8.2644298925086606</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-5.1200475934802494</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>-0.1600176838773848</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>5.4274519999999997</v>
-      </c>
-      <c r="C7">
-        <v>5.4256890000000002</v>
-      </c>
-      <c r="D7">
-        <v>5.4518959999999996</v>
-      </c>
-      <c r="E7">
-        <v>5.4268669999999997</v>
-      </c>
-      <c r="F7">
-        <v>5.4750110000000003</v>
-      </c>
-      <c r="G7">
-        <v>5.430542</v>
-      </c>
-      <c r="H7">
-        <v>5.4472579999999997</v>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f>C6-B6</f>
+        <v>0.33424421011206173</v>
+      </c>
+      <c r="D10">
+        <f>D6-C6</f>
+        <v>1.4082635555453427</v>
+      </c>
+      <c r="E10">
+        <f>E6-D6</f>
+        <v>2.5131565950501424</v>
+      </c>
+      <c r="F10">
+        <f>F6-E6</f>
+        <v>4.6735429399711599</v>
+      </c>
+      <c r="G10">
+        <f>G6-F6</f>
+        <v>8.8349723867517316</v>
+      </c>
+      <c r="H10">
+        <f>H6-G6</f>
+        <v>9.4444200489699561</v>
+      </c>
+      <c r="I10">
+        <f>I6-H6</f>
+        <v>3.0250057033567899</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/RR Lab 2/Speedup Tables.xlsx
+++ b/RR Lab 2/Speedup Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reah\Desktop\PC\RR Lab 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619747AD-30BE-437D-A78A-0951232C6225}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2135BAC6-FD0E-460E-A060-5F27AE3B0CF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="8796" xr2:uid="{1371BD5B-9DFD-41D1-B861-2EEF838A16AE}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>Speedup</t>
   </si>
   <si>
-    <t>N=100000</t>
-  </si>
-  <si>
     <t>Time (s)</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>Efficiency (N=10000)</t>
+  </si>
+  <si>
+    <t>N=100,000</t>
   </si>
 </sst>
 </file>
@@ -160,6 +160,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -191,15 +216,36 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10188131084426355"/>
+          <c:y val="0.13504460222100856"/>
+          <c:w val="0.75212175778433654"/>
+          <c:h val="0.71784705229705381"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -208,45 +254,201 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$I$9</c:f>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30321829418399693</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4387608522735631</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4572252337289409</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1314728494820248</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2644298925086606</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.1200475934802494</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.1600176838773848</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3032182941839969</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.74197914645756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1992043801865009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3306772296685256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.595107122177186</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.475059528696937</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.315041844819552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2678-4C1A-B12D-A43967693401}"/>
+              <c16:uniqueId val="{00000000-DEA1-4B92-9D82-40FBD56FC7C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=100,000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3342442101120617</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7425077656574044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2556643607075468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9292073006787067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.764179687430438</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.208599736400394</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.233605439757184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DEA1-4B92-9D82-40FBD56FC7C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -258,17 +460,86 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="476371407"/>
-        <c:axId val="307286751"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="476371407"/>
+        <c:axId val="1545530527"/>
+        <c:axId val="1488106207"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1545530527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -277,8 +548,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -305,15 +576,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307286751"/>
+        <c:crossAx val="1488106207"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="307286751"/>
+        <c:axId val="1488106207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -333,14 +601,83 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5787099684258007E-2"/>
+              <c:y val="0.41829902338122538"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -364,9 +701,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476371407"/>
+        <c:crossAx val="1545530527"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -376,6 +713,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -461,7 +829,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -488,8 +856,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -569,11 +937,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -584,11 +947,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -600,7 +958,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -620,9 +978,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -635,10 +990,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -678,22 +1033,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -798,8 +1154,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -931,19 +1287,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -957,6 +1314,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -980,23 +1348,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>55245</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>55245</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>156209</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD052E50-46EE-42D9-825B-4A092665FC7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772F587D-02AF-4D76-AAFC-8D45645145AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1317,7 +1685,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="A8:I10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1327,7 +1695,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -1356,7 +1724,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1392,7 +1760,7 @@
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>0.60773500000000003</v>
@@ -1421,7 +1789,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -1450,7 +1818,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -1486,7 +1854,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="6">
         <v>63.223314000000002</v>
@@ -1541,7 +1909,7 @@
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1577,37 +1945,37 @@
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <f>C6-B6</f>
+        <f t="shared" ref="C10:I10" si="1">C6-B6</f>
         <v>0.33424421011206173</v>
       </c>
       <c r="D10">
-        <f>D6-C6</f>
+        <f t="shared" si="1"/>
         <v>1.4082635555453427</v>
       </c>
       <c r="E10">
-        <f>E6-D6</f>
+        <f t="shared" si="1"/>
         <v>2.5131565950501424</v>
       </c>
       <c r="F10">
-        <f>F6-E6</f>
+        <f t="shared" si="1"/>
         <v>4.6735429399711599</v>
       </c>
       <c r="G10">
-        <f>G6-F6</f>
+        <f t="shared" si="1"/>
         <v>8.8349723867517316</v>
       </c>
       <c r="H10">
-        <f>H6-G6</f>
+        <f t="shared" si="1"/>
         <v>9.4444200489699561</v>
       </c>
       <c r="I10">
-        <f>I6-H6</f>
+        <f t="shared" si="1"/>
         <v>3.0250057033567899</v>
       </c>
     </row>
